--- a/data/trans_camb/P20-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P20-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,15; 6,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 3,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,76; 7,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 4,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 3,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,14; 1,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,35; 4,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 2,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 3,21</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,4%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,74; 107,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,72; 54,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,92; 122,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,41; 71,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,66; 49,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,75; 30,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,01; 74,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,07; 37,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 49,01</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 3,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 2,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,76; 3,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,04; 3,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 1,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,35; 0,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 3,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 1,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 1,3</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,19%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,17; 166,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,09; 116,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,56; 155,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 62,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,27; 29,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,49; 2,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,93; 70,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,94; 40,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,06; 30,1</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,68; 1,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,25; 3,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 4,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 5,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,86; 4,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,59; 2,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 2,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 3,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 2,62</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,81%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,23%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,2%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,16%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,11; 40,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,86; 117,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,95; 147,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,2; 105,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,04; 86,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,08; 44,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,43; 54,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,35; 69,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,88; 59,29</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,82; 3,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 1,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 2,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,82; 3,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 1,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; 0,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,1; 2,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 1,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 1,1</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,33%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,14%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,97%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,68%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,55%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,12%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,97; 83,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,65; 50,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,14; 77,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,57; 52,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,94; 24,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,73; 0,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,88; 53,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,91; 25,04</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,95; 20,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,64</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 7,14</t>
+          <t>1,75; 7,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,83</t>
+          <t>-2,06; 1,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 3,21</t>
+          <t>-0,02; 3,38</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>65,36%</t>
+          <t>64,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,39%</t>
+          <t>-2,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>22,89%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,92; 122,2</t>
+          <t>21,61; 121,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,75; 30,04</t>
+          <t>-24,04; 31,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 49,01</t>
+          <t>-0,73; 51,19</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-0,18</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,18</t>
+          <t>-0,07; 2,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 0,15</t>
+          <t>-3,92; -0,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,3</t>
+          <t>-1,51; 0,88</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>71,61%</t>
+          <t>55,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-21,83%</t>
+          <t>-27,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>-3,78%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,56; 155,51</t>
+          <t>-1,15; 130,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,49; 2,81</t>
+          <t>-49,56; -2,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 30,1</t>
+          <t>-27,83; 21,01</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,6</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,03</t>
+          <t>-0,98; 4,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 2,34</t>
+          <t>-3,69; 2,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,62</t>
+          <t>-1,47; 2,45</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>37,23%</t>
+          <t>37,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-6,04%</t>
+          <t>-8,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>10,65%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,95; 147,05</t>
+          <t>-20,63; 151,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,08; 44,12</t>
+          <t>-39,52; 40,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 59,29</t>
+          <t>-22,47; 56,65</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,09</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,84</t>
+          <t>-0,07; 2,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 0,05</t>
+          <t>-2,84; -0,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 1,1</t>
+          <t>-1,21; 0,82</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>40,14%</t>
+          <t>31,28%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-15,68%</t>
+          <t>-19,58%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>-1,62%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,14; 77,4</t>
+          <t>-1,14; 65,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,73; 0,81</t>
+          <t>-36,55; -3,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 20,51</t>
+          <t>-19,42; 15,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 6,13</t>
+          <t>1,3; 6,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 3,06</t>
+          <t>-1,59; 3,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 7,07</t>
+          <t>1,66; 7,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 4,65</t>
+          <t>0,15; 4,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 3,21</t>
+          <t>-1,65; 3,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 1,99</t>
+          <t>-2,38; 1,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,78</t>
+          <t>1,13; 4,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,44</t>
+          <t>-1,1; 2,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 3,38</t>
+          <t>0,0; 3,02</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,74; 107,81</t>
+          <t>16,93; 110,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 54,66</t>
+          <t>-20,31; 55,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,61; 121,46</t>
+          <t>20,79; 125,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 71,09</t>
+          <t>1,95; 67,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,66; 49,92</t>
+          <t>-19,51; 50,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 31,79</t>
+          <t>-26,82; 27,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,01; 74,51</t>
+          <t>14,35; 68,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 37,73</t>
+          <t>-14,18; 33,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 51,19</t>
+          <t>0,19; 47,77</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,37</t>
+          <t>0,96; 3,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,41</t>
+          <t>0,17; 2,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 2,76</t>
+          <t>-0,23; 2,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 3,83</t>
+          <t>-0,18; 3,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,83</t>
+          <t>-1,64; 1,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,92; -0,18</t>
+          <t>-3,83; -0,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,07</t>
+          <t>0,84; 3,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,74</t>
+          <t>-0,43; 1,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,88</t>
+          <t>-1,48; 0,92</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,17; 166,18</t>
+          <t>27,15; 164,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 116,22</t>
+          <t>4,01; 116,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 130,63</t>
+          <t>-3,75; 126,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 62,08</t>
+          <t>-2,24; 62,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 29,89</t>
+          <t>-20,34; 30,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,56; -2,75</t>
+          <t>-49,4; -5,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,93; 70,25</t>
+          <t>14,58; 75,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 40,27</t>
+          <t>-7,63; 44,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-27,83; 21,01</t>
+          <t>-27,36; 20,45</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 1,02</t>
+          <t>-3,73; 1,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 3,47</t>
+          <t>-2,08; 3,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 4,14</t>
+          <t>-1,08; 4,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 5,92</t>
+          <t>-1,54; 5,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 4,83</t>
+          <t>-1,98; 4,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 2,1</t>
+          <t>-3,54; 2,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 2,59</t>
+          <t>-1,74; 2,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 3,18</t>
+          <t>-1,01; 3,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 2,45</t>
+          <t>-1,47; 2,48</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-70,11; 40,94</t>
+          <t>-69,07; 49,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-41,86; 117,92</t>
+          <t>-40,39; 123,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,63; 151,22</t>
+          <t>-21,8; 147,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,2; 105,24</t>
+          <t>-18,14; 107,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,04; 86,97</t>
+          <t>-23,41; 89,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,52; 40,03</t>
+          <t>-38,87; 37,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 54,3</t>
+          <t>-26,39; 52,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 69,73</t>
+          <t>-15,51; 68,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-22,47; 56,65</t>
+          <t>-21,72; 50,92</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,08</t>
+          <t>0,81; 3,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,75</t>
+          <t>-0,38; 1,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 2,42</t>
+          <t>0,01; 2,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,52</t>
+          <t>0,81; 3,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 1,67</t>
+          <t>-0,97; 1,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,84; -0,19</t>
+          <t>-2,82; -0,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 2,89</t>
+          <t>1,21; 3,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,36</t>
+          <t>-0,34; 1,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 0,82</t>
+          <t>-1,04; 0,85</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,97; 83,38</t>
+          <t>17,11; 83,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 50,57</t>
+          <t>-8,07; 46,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 65,59</t>
+          <t>0,46; 65,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,57; 52,44</t>
+          <t>10,79; 51,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 24,33</t>
+          <t>-12,05; 24,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,55; -3,7</t>
+          <t>-35,36; -0,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,88; 53,76</t>
+          <t>19,33; 56,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 25,04</t>
+          <t>-5,74; 26,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 15,14</t>
+          <t>-16,73; 15,91</t>
         </is>
       </c>
     </row>
